--- a/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
+++ b/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9BAC41-5855-4DE8-9837-C7491DAD865A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Informations global </t>
+  </si>
+  <si>
+    <t>Information liées aux jeux vidéo</t>
+  </si>
+  <si>
+    <t>Informations utile 
+par rapport au jeu testé</t>
+  </si>
+  <si>
+    <t>Information par rapport au test</t>
+  </si>
+  <si>
+    <t>Nom (optinel)</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Genre 
+(Homme/Femme)</t>
+  </si>
+  <si>
+    <t>Fréquence 
+de jeu</t>
+  </si>
+  <si>
+    <t>Genre de 
+jeu préféré</t>
+  </si>
+  <si>
+    <t>Jeu préféré</t>
+  </si>
+  <si>
+    <t>Plateforme de jeu préféré (pc,ps4,xbox one…)</t>
+  </si>
+  <si>
+    <t>Noté votre amusement durant le test sur une échelle de 1 à 5 (5 positif, 1 négatif)</t>
+  </si>
+  <si>
+    <t>Noté votre facilité à utilisé le jeu (commande) sur une échelle de 1 à 5 (5 positif, 1 négatif)</t>
+  </si>
+  <si>
+    <t>Avez-vous lu tout le textes, un partie ou pas lu le texte</t>
+  </si>
+  <si>
+    <t>Sur une échelle de 1 à 5 avez-vous appris des choses (5 positif, 1 négatif)</t>
+  </si>
+  <si>
+    <t>Métier/étude</t>
+  </si>
+  <si>
+    <t>D'après vous que voulai mettre en avant Ma Cyber Auto Entreprise</t>
+  </si>
+  <si>
+    <t>Questionnaire de Playtest Ma Cyber Auto Entreprise</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +95,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +137,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +675,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="15" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="31" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="K3:O3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
+++ b/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9BAC41-5855-4DE8-9837-C7491DAD865A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC898DD1-92A9-4D29-AD74-AD76C1CD2924}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Informations global </t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Questionnaire de Playtest Ma Cyber Auto Entreprise</t>
+  </si>
+  <si>
+    <t>écrivez vos commentaires :</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -321,41 +330,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +378,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +728,7 @@
     <col min="13" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -713,238 +749,419 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="K3:O3"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
+++ b/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC898DD1-92A9-4D29-AD74-AD76C1CD2924}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715C636F-2AC0-4E3F-AE1D-218A29D6365E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t xml:space="preserve">Informations global </t>
   </si>
@@ -84,6 +84,223 @@
   </si>
   <si>
     <t>écrivez vos commentaires :</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>très rarement</t>
+  </si>
+  <si>
+    <t>Die hard trilogie</t>
+  </si>
+  <si>
+    <t>ps1</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Plusieurs heures 
+par mois</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Plusieur heures 
+par semaines</t>
+  </si>
+  <si>
+    <t>vendeuse 
+en boulangerie</t>
+  </si>
+  <si>
+    <t>seconde</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Boulé</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Clavet</t>
+  </si>
+  <si>
+    <t>Davignon</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Vail</t>
+  </si>
+  <si>
+    <t>Gaillard</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Plusieurs heures 
+par semaines</t>
+  </si>
+  <si>
+    <t>ocasionnellement</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>gestion</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>rpg</t>
+  </si>
+  <si>
+    <t>pas de 
+préférence</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>multijoueur</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Call of duty</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>God of war</t>
+  </si>
+  <si>
+    <t>Angry bird</t>
+  </si>
+  <si>
+    <t>Theme hospital</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>ps4</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>ps3, ps4</t>
+  </si>
+  <si>
+    <t>xbox one</t>
+  </si>
+  <si>
+    <t>aucune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fac de math</t>
+  </si>
+  <si>
+    <t>étude en 
+médecine</t>
+  </si>
+  <si>
+    <t>terminale</t>
+  </si>
+  <si>
+    <t>coiffeuse</t>
+  </si>
+  <si>
+    <t>recherche
+d'emploi</t>
+  </si>
+  <si>
+    <t>fac d'histoire</t>
+  </si>
+  <si>
+    <t>une partie</t>
+  </si>
+  <si>
+    <t>une petite partie 
+au début</t>
+  </si>
+  <si>
+    <t>tout</t>
+  </si>
+  <si>
+    <t>presque tout</t>
+  </si>
+  <si>
+    <t>comment créer son 
+auto entreprise</t>
+  </si>
+  <si>
+    <t>créer une 
+auto entreprise</t>
+  </si>
+  <si>
+    <t>comment créer et mettre en 
+avant son auto entreprise</t>
+  </si>
+  <si>
+    <t>créer son 
+auto entreprise</t>
+  </si>
+  <si>
+    <t>créer une entreprise</t>
+  </si>
+  <si>
+    <t>faire une 
+auto entreprise</t>
+  </si>
+  <si>
+    <t>gérer une entreprise</t>
+  </si>
+  <si>
+    <t>créer et gérer 
+son auto entreprise</t>
+  </si>
+  <si>
+    <t>faire une auto entreprise 
+et sa publicitée</t>
+  </si>
+  <si>
+    <t>*l'introduction du jeu est lente et sans son -&gt; non motivant    *le son d'horloge est ennuyeux    *le jeu devient vite ennuiyeux    *on se contente de cliquer pour avancer sans forcément lire    *le jeu permet d'en apprendre beaucoup sur les autos entreprises
+*le jeu n'est pas assez intéressant pour moi   *jeu intéressant pour des personnes intéresser à l'auto entreprise</t>
   </si>
 </sst>
 </file>
@@ -138,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -326,11 +543,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -369,15 +662,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,22 +766,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,19 +1070,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="10" width="14.28515625" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" customWidth="1"/>
     <col min="13" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -749,28 +1105,28 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -816,344 +1172,618 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17">
+        <v>46</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2</v>
+      </c>
+      <c r="L5" s="21">
+        <v>3</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="21">
+        <v>22</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="23">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <v>5</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="21">
+        <v>19</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="23">
+        <v>3</v>
+      </c>
+      <c r="L7" s="21">
+        <v>5</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="21">
+        <v>39</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="23">
+        <v>3</v>
+      </c>
+      <c r="L8" s="21">
+        <v>3</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="21">
+        <v>16</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="23">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>5</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="21">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="23">
+        <v>2</v>
+      </c>
+      <c r="L10" s="21">
+        <v>5</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="21">
+        <v>16</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="23">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>5</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="21">
+        <v>18</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="23">
+        <v>2</v>
+      </c>
+      <c r="L12" s="21">
+        <v>5</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="21">
+        <v>23</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="23">
+        <v>3</v>
+      </c>
+      <c r="L13" s="21">
+        <v>4</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="28">
+        <v>19</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="L14" s="28">
+        <v>5</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="31">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
+      <c r="B17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="51"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="51"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="40"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
+++ b/Questionnaire_Ma_Cyber_Auto_Entreprise.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715C636F-2AC0-4E3F-AE1D-218A29D6365E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB28E1-B019-4F32-BD2B-776370A81A85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t xml:space="preserve">Informations global </t>
   </si>
@@ -301,13 +307,16 @@
   <si>
     <t>*l'introduction du jeu est lente et sans son -&gt; non motivant    *le son d'horloge est ennuyeux    *le jeu devient vite ennuiyeux    *on se contente de cliquer pour avancer sans forcément lire    *le jeu permet d'en apprendre beaucoup sur les autos entreprises
 *le jeu n'est pas assez intéressant pour moi   *jeu intéressant pour des personnes intéresser à l'auto entreprise</t>
+  </si>
+  <si>
+    <t>Anthony Lamour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +331,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +369,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -623,74 +644,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,15 +678,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -729,33 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,26 +705,104 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,15 +1084,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:O26"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -1084,7 +1103,7 @@
     <col min="13" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,685 +1124,690 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="5">
         <v>46</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="46">
         <v>2</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="46">
         <v>1</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="7">
         <v>5</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="7">
         <v>19</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="46">
         <v>3</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="7">
         <v>39</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="46">
         <v>3</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="7">
         <v>16</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="46">
         <v>1</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="7">
         <v>5</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="7">
         <v>21</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="46">
         <v>2</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="7">
         <v>5</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="7">
         <v>16</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="46">
         <v>1</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="7">
         <v>5</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="7">
         <v>18</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="46">
         <v>2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="7">
         <v>5</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="7">
         <v>23</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="46">
         <v>3</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="7">
         <v>4</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="12">
         <v>19</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="47">
         <v>1</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="12">
         <v>5</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="51"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="55"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="51"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="51"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="51"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="51"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="51"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="51"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
